--- a/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="77">
   <si>
     <t>Path</t>
   </si>
@@ -176,6 +176,9 @@
 </t>
   </si>
   <si>
+    <t>Status of the medication scheduled administration</t>
+  </si>
+  <si>
     <t>status of the medication scheduled administration</t>
   </si>
   <si>
@@ -196,7 +199,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>product to be consumed</t>
+    <t>Product to be consumed</t>
   </si>
   <si>
     <t>BeModelMedicationScheduledAdministration.encounter</t>
@@ -232,7 +235,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication should be taken</t>
+    <t>How the product should be consumed</t>
   </si>
   <si>
     <t>BeModelMedicationScheduledAdministration.note</t>
@@ -242,7 +245,7 @@
 </t>
   </si>
   <si>
-    <t>Additional Information about the prescription</t>
+    <t>Additional Information about the scheduled administration</t>
   </si>
   <si>
     <t>BeModelMedicationScheduledAdministration.treatment</t>
@@ -889,7 +892,7 @@
         <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -960,7 +963,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -983,13 +986,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1040,7 +1043,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1083,13 +1086,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1140,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>44</v>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1183,13 +1186,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1240,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1283,13 +1286,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1340,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1360,7 +1363,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1386,10 +1389,10 @@
         <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1440,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1460,7 +1463,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1483,13 +1486,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1540,7 +1543,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1560,7 +1563,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1583,13 +1586,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1640,7 +1643,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1660,7 +1663,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1683,13 +1686,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1740,7 +1743,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>

--- a/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
@@ -140,7 +140,7 @@
     <t>Medication Record Scheduled Administration logical model</t>
   </si>
   <si>
-    <t>Record of a single planned administration event</t>
+    <t>Record of a single planned administration event.</t>
   </si>
   <si>
     <t>Base</t>
@@ -248,7 +248,7 @@
     <t>Additional Information about the scheduled administration</t>
   </si>
   <si>
-    <t>BeModelMedicationScheduledAdministration.treatment</t>
+    <t>BeModelMedicationScheduledAdministration.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference

--- a/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Scheduled Administration logical model</t>
+    <t>[Logical Model] - Scheduled Administration</t>
   </si>
   <si>
     <t>Record of a single planned administration event.</t>

--- a/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationScheduledAdministration.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Scheduled Administration</t>
   </si>
   <si>
-    <t>Record of a single planned administration event.</t>
+    <t>A model for a record of a single planned administration event.</t>
   </si>
   <si>
     <t>Base</t>
